--- a/Hardware/K02_128_Clock2/BOM StepperClockK02.xlsx
+++ b/Hardware/K02_128_Clock2/BOM StepperClockK02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erich Styger\Data\DIY Projekte\MetaClockClock\Hardware\K02_128_Clock2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erich\Data\GitRepos\MetaClockClock\Hardware\K02_128_Clock2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0C4A9F-293E-4455-9A07-9B865290CCCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8CBC31-B22B-44D6-A908-6DEF7956008A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-570" yWindow="-17220" windowWidth="23415" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="0" windowWidth="25455" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>RS-485</t>
   </si>
   <si>
-    <t>MK02FN128VM10</t>
-  </si>
-  <si>
     <t>128KB, 16KB RAM, 32QFN</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>100 m 0.25mm2 red cables for connectors</t>
+  </si>
+  <si>
+    <t>MK02FN128VFM10, or MK02FN64VFM10 (pin compatible)</t>
   </si>
 </sst>
 </file>
@@ -923,13 +923,13 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="54" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="23.140625" customWidth="1"/>
@@ -937,31 +937,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -991,27 +991,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <f>C3*B3</f>
+        <f t="shared" ref="D3:D27" si="0">C3*B3</f>
         <v>0.65060000000000007</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="10">
-        <f>E3*B3</f>
+        <f t="shared" ref="F3:F8" si="1">E3*B3</f>
         <v>0.65060000000000007</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1028,14 +1028,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="23">
-        <f>C4*B4</f>
+        <f t="shared" si="0"/>
         <v>8.0333333333333332</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="10">
-        <f>E4*B4</f>
+        <f t="shared" si="1"/>
         <v>4.0166666666666666</v>
       </c>
       <c r="G4" t="s">
@@ -1045,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1061,27 +1061,27 @@
         <v>80</v>
       </c>
       <c r="D5" s="23">
-        <f>C5*B5</f>
+        <f t="shared" si="0"/>
         <v>6.8111999999999995</v>
       </c>
       <c r="E5" s="14">
         <v>40</v>
       </c>
       <c r="F5" s="10">
-        <f>E5*B5</f>
+        <f t="shared" si="1"/>
         <v>3.4055999999999997</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1097,27 +1097,27 @@
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <f>C6*B6</f>
+        <f t="shared" si="0"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="E6" s="14">
         <v>1</v>
       </c>
       <c r="F6" s="10">
-        <f>E6*B6</f>
+        <f t="shared" si="1"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1133,27 +1133,27 @@
         <v>0</v>
       </c>
       <c r="D7" s="23">
-        <f>C7*B7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="14">
         <v>1</v>
       </c>
       <c r="F7" s="10">
-        <f>E7*B7</f>
+        <f t="shared" si="1"/>
         <v>2.83</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1170,24 +1170,24 @@
         <v>1</v>
       </c>
       <c r="D8" s="23">
-        <f>C8*B8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
       </c>
       <c r="F8" s="10">
-        <f>E8*B8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <f>C9*B9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="14">
@@ -1213,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1236,24 +1236,24 @@
         <v>2</v>
       </c>
       <c r="D10" s="23">
-        <f>C10*B10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E10" s="14">
         <v>1</v>
       </c>
       <c r="F10" s="10">
-        <f>E10*B10</f>
+        <f t="shared" ref="F10:F27" si="2">E10*B10</f>
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1270,14 +1270,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <f>C11*B11</f>
+        <f t="shared" si="0"/>
         <v>0.40300000000000002</v>
       </c>
       <c r="E11" s="14">
         <v>1</v>
       </c>
       <c r="F11" s="10">
-        <f>E11*B11</f>
+        <f t="shared" si="2"/>
         <v>0.40300000000000002</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1306,27 +1306,27 @@
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <f>C12*B12</f>
+        <f t="shared" si="0"/>
         <v>0.19400000000000001</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="10">
-        <f>E12*B12</f>
+        <f t="shared" si="2"/>
         <v>0.19400000000000001</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1342,14 +1342,14 @@
         <v>1</v>
       </c>
       <c r="D13" s="23">
-        <f>C13*B13</f>
+        <f t="shared" si="0"/>
         <v>0.14799999999999999</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="10">
-        <f>E13*B13</f>
+        <f t="shared" si="2"/>
         <v>0.14799999999999999</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1378,14 +1378,14 @@
         <v>0</v>
       </c>
       <c r="D14" s="23">
-        <f>C14*B14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="14">
         <v>0</v>
       </c>
       <c r="F14" s="10">
-        <f>E14*B14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1414,25 +1414,25 @@
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <f>C15*B15</f>
+        <f t="shared" si="0"/>
         <v>0.22600000000000001</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="10">
-        <f>E15*B15</f>
+        <f t="shared" si="2"/>
         <v>0.22600000000000001</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1448,14 +1448,14 @@
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <f>C16*B16</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="10">
-        <f>E16*B16</f>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1484,14 +1484,14 @@
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <f>C17*B17</f>
+        <f t="shared" si="0"/>
         <v>0.376</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="10">
-        <f>E17*B17</f>
+        <f t="shared" si="2"/>
         <v>0.376</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1520,18 +1520,18 @@
         <v>0</v>
       </c>
       <c r="D18" s="23">
-        <f>C18*B18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="14">
         <v>0</v>
       </c>
       <c r="F18" s="10">
-        <f>E18*B18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>25</v>
@@ -1556,14 +1556,14 @@
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <f>C19*B19</f>
+        <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="10">
-        <f>E19*B19</f>
+        <f t="shared" si="2"/>
         <v>1.67</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1576,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1591,27 +1591,27 @@
         <v>4</v>
       </c>
       <c r="D20" s="23">
-        <f>C20*B20</f>
+        <f t="shared" si="0"/>
         <v>0.22200000000000003</v>
       </c>
       <c r="E20" s="14">
         <v>2</v>
       </c>
       <c r="F20" s="10">
-        <f>E20*B20</f>
+        <f t="shared" si="2"/>
         <v>0.11100000000000002</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
         <v>48</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" t="s">
-        <v>49</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1619,34 +1619,34 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7">
-        <f t="shared" ref="B21:B23" si="0">27.75/100/5</f>
+        <f t="shared" ref="B21:B23" si="3">27.75/100/5</f>
         <v>5.5500000000000008E-2</v>
       </c>
       <c r="C21" s="22">
         <v>4</v>
       </c>
       <c r="D21" s="23">
-        <f>C21*B21</f>
+        <f t="shared" si="0"/>
         <v>0.22200000000000003</v>
       </c>
       <c r="E21" s="14">
         <v>2</v>
       </c>
       <c r="F21" s="10">
-        <f>E21*B21</f>
+        <f t="shared" si="2"/>
         <v>0.11100000000000002</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1654,34 +1654,34 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.5500000000000008E-2</v>
       </c>
       <c r="C22" s="22">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <f>C22*B22</f>
+        <f t="shared" si="0"/>
         <v>5.5500000000000008E-2</v>
       </c>
       <c r="E22" s="14">
         <v>1</v>
       </c>
       <c r="F22" s="10">
-        <f>E22*B22</f>
+        <f t="shared" si="2"/>
         <v>5.5500000000000008E-2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1689,34 +1689,34 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.5500000000000008E-2</v>
       </c>
       <c r="C23" s="22">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <f>C23*B23</f>
+        <f t="shared" si="0"/>
         <v>5.5500000000000008E-2</v>
       </c>
       <c r="E23" s="14">
         <v>1</v>
       </c>
       <c r="F23" s="10">
-        <f>E23*B23</f>
+        <f t="shared" si="2"/>
         <v>5.5500000000000008E-2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1731,19 +1731,19 @@
         <v>80</v>
       </c>
       <c r="D24" s="23">
-        <f>C24*B24</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="E24" s="14">
         <v>48</v>
       </c>
       <c r="F24" s="10">
-        <f>E24*B24</f>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1759,19 +1759,19 @@
         <v>11</v>
       </c>
       <c r="D25" s="23">
-        <f>C25*B25</f>
+        <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
       <c r="E25" s="14">
         <v>11</v>
       </c>
       <c r="F25" s="10">
-        <f>E25*B25</f>
+        <f t="shared" si="2"/>
         <v>0.22</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1787,19 +1787,19 @@
         <v>6</v>
       </c>
       <c r="D26" s="23">
-        <f>C26*B26</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="E26" s="14">
         <v>6</v>
       </c>
       <c r="F26" s="10">
-        <f>E26*B26</f>
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <f t="shared" ref="A27:A34" si="1">B27</f>
+        <f t="shared" ref="A27:A34" si="4">B27</f>
         <v>1.2545000000000001E-2</v>
       </c>
       <c r="B27" s="7">
@@ -1819,27 +1819,27 @@
         <v>2</v>
       </c>
       <c r="D27" s="23">
-        <f>C27*B27</f>
+        <f t="shared" si="0"/>
         <v>2.5090000000000001E-2</v>
       </c>
       <c r="E27" s="14">
         <v>2</v>
       </c>
       <c r="F27" s="10">
-        <f>E27*B27</f>
+        <f t="shared" si="2"/>
         <v>2.5090000000000001E-2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -1853,22 +1853,22 @@
       <c r="E28" s="14"/>
       <c r="F28" s="10"/>
       <c r="G28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2545000000000001E-2</v>
       </c>
       <c r="B29" s="7">
@@ -1879,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="23">
-        <f>C29*B29</f>
+        <f t="shared" ref="D29:D36" si="5">C29*B29</f>
         <v>2.5090000000000001E-2</v>
       </c>
       <c r="E29" s="14">
@@ -1890,22 +1890,22 @@
         <v>2.5090000000000001E-2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.005E-3</v>
       </c>
       <c r="B30" s="7">
@@ -1916,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="23">
-        <f>C30*B30</f>
+        <f t="shared" si="5"/>
         <v>1.601E-2</v>
       </c>
       <c r="E30" s="14">
@@ -1927,22 +1927,22 @@
         <v>1.601E-2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.005E-3</v>
       </c>
       <c r="B31" s="7">
@@ -1953,29 +1953,29 @@
         <v>2</v>
       </c>
       <c r="D31" s="23">
-        <f>C31*B31</f>
+        <f t="shared" si="5"/>
         <v>1.601E-2</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="10"/>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.005E-3</v>
       </c>
       <c r="B32" s="7">
@@ -1986,29 +1986,29 @@
         <v>0</v>
       </c>
       <c r="D32" s="23">
-        <f>C32*B32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="10"/>
       <c r="G32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.005E-3</v>
       </c>
       <c r="B33" s="7">
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="23">
-        <f>C33*B33</f>
+        <f t="shared" si="5"/>
         <v>1.601E-2</v>
       </c>
       <c r="E33" s="14">
@@ -2031,19 +2031,19 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4070000000000001E-2</v>
       </c>
       <c r="B34" s="7">
@@ -2054,7 +2054,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="23">
-        <f>C34*B34</f>
+        <f t="shared" si="5"/>
         <v>0.16884000000000002</v>
       </c>
       <c r="E34" s="14">
@@ -2066,10 +2066,10 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2085,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="23">
-        <f>C35*B35</f>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="E35" s="14">
@@ -2096,10 +2096,10 @@
         <v>0.06</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2116,7 +2116,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="23">
-        <f>C36*B36</f>
+        <f t="shared" si="5"/>
         <v>7.8000000000000014E-2</v>
       </c>
       <c r="E36" s="14">
@@ -2127,14 +2127,14 @@
         <v>5.2000000000000005E-2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2149,7 +2149,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
@@ -2171,100 +2171,100 @@
     <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" t="s">
         <v>93</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" t="s">
         <v>96</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J45" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
